--- a/prhs.xlsx
+++ b/prhs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t xml:space="preserve">Ergebnisse:</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">INTEGER &amp; READING         1 Kb block: 53.27 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Total ticks      : 11980000</t>
+    <t xml:space="preserve">Total ticks      : 21690000</t>
   </si>
   <si>
     <t xml:space="preserve">500000: ms for one run: 30,4 – DPS 32894,7</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">INTEGER &amp; READING         2 Kb block: 53.47 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Total time (secs): 11.980000</t>
+    <t xml:space="preserve">Total time (secs): 21.690000</t>
   </si>
   <si>
     <t xml:space="preserve">1000000:  ms for one run: 30,3 – DPS 33057,9</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">INTEGER &amp; READING         4 Kb block: 52.45 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations/Sec   : 91.819699</t>
+    <t xml:space="preserve">Iterations/Sec   : 92.208391</t>
   </si>
   <si>
     <t xml:space="preserve">5000000: ms for one run: 30,2 – DPS 33066,6</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">INTEGER &amp; READING         8 Kb block: 17.61 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations       : 1100</t>
+    <t xml:space="preserve">Iterations       : 2000</t>
   </si>
   <si>
     <t xml:space="preserve">10000000 ms for one run: 30,4 – DPS 32914,2</t>
@@ -134,21 +134,146 @@
   </si>
   <si>
     <t xml:space="preserve">Dhrystones per Second:        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K performance run parameters for coremark.                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoreMark Size    : 666                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000: ms for one run: 28,6 – DPS 34965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ticks      : 21340000                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000: ms for one run: 28,9 – DPS 34602,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time (secs): 21.340000                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000000:  ms for one run: 28,8 – DPS 34758,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations/Sec   : 93.720712                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000000: ms for one run: 28,7– DPS 34865,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations       : 2000                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000 ms for one run: 28,6 – DPS 35006,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000: ms for one run: 30,7 – DPS 32573,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ticks      : 21410000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000: ms for one run: 30,9 – DPS 32383,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time (secs): 21.410000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000000:  ms for one run: 30,9 – DPS 32372,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations/Sec   : 93.414292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000000: ms for one run: 30,9– DPS 32368,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000 ms for one run: 30,9 – DPS 32366,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Core (Primäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual-Core (Primäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quad-Core (Primäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Core (Sekundäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual-Core (Sekundäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quad-Core (Sekundäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ticks      :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time (secs): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations/Sec   :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms für einen Lauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMIPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -164,6 +289,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +361,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -230,7 +374,2312 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Dhrystone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$70:$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms für einen Lauf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$71:$D$75</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$71:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$70:$F$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$71:$D$75</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$71:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.7220830961867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.7220830961867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.814968696642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8199203187251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.7331815594764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="78454712"/>
+        <c:axId val="97349286"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78454712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl der Läufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97349286"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97349286"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78454712"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Dhrystone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$70:$I$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms für einen Lauf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$71:$H$75</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$71:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$70:$J$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$71:$H$75</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$71:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.9003984063745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.6938531587934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.7828116107001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8435401252134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.9241320432555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="42532105"/>
+        <c:axId val="41824424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42532105"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl der Läufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41824424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41824424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42532105"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Ramspeed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$60:$K$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$61:$J$67</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Kb Block:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$61:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="11916863"/>
+        <c:axId val="50833405"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="11916863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Größe des Blockes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50833405"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50833405"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Geschwindigkeit(MB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11916863"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Dhystone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms für einen Lauf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$71:$L$75</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$71:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$71:$L$75</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$71:$N$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.5391576550939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.4310756972112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.4250996015936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.4227091633466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.4215139442231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="26488923"/>
+        <c:axId val="14292484"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26488923"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl der Läufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14292484"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14292484"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26488923"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>CoreMark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$50:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single-Core (Primäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$52:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21690000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$50:$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual-Core (Primäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$52:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21340000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$50:$G$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quad-Core (Primäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$52:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$52:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21410000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$50:$H$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single-Core (Sekundäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$52:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$50:$I$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual-Core (Sekundäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$52:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$52:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$50:$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quad-Core (Sekundäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$52:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$52:$J$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="90790355"/>
+        <c:axId val="65743855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="90790355"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65743855"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65743855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90790355"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>715320</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632160</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1527840" y="14417640"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560520</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>26280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>874080</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8028720" y="14331240"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1657080</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1532520</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14571360" y="17237160"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>122760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601920</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16142400" y="12802320"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="109440" y="2839320"/>
+        <a:ext cx="10273320" cy="4128840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -238,21 +2687,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
@@ -405,6 +2855,607 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="M19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="1"/>
+      <c r="L25" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="2"/>
+      <c r="L26" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="M30" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="0" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="0" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="1"/>
+      <c r="L36" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="2"/>
+      <c r="L37" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>21690000</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>21340000</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>21410000</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>92.21</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>93.41</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K60" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>53.27</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>53.47</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>52.45</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <f aca="false">32894.7/1757</f>
+        <v>18.7220830961867</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J71" s="3" t="n">
+        <f aca="false">34965/1757</f>
+        <v>19.9003984063745</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="N71" s="3" t="n">
+        <f aca="false">32573.3/1757</f>
+        <v>18.5391576550939</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <f aca="false">32894.7/1757</f>
+        <v>18.7220830961867</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J72" s="3" t="n">
+        <f aca="false">34602.1/1757</f>
+        <v>19.6938531587934</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="N72" s="3" t="n">
+        <f aca="false">32383.4/1757</f>
+        <v>18.4310756972112</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <f aca="false">33057.9/1757</f>
+        <v>18.814968696642</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <f aca="false">34758.4/1757</f>
+        <v>19.7828116107001</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="N73" s="3" t="n">
+        <f aca="false">32372.9/1757</f>
+        <v>18.4250996015936</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <f aca="false">33066.6/1757</f>
+        <v>18.8199203187251</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J74" s="3" t="n">
+        <f aca="false">34865.1/1757</f>
+        <v>19.8435401252134</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="N74" s="3" t="n">
+        <f aca="false">32368.7/1757</f>
+        <v>18.4227091633466</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <f aca="false">32914.2/1757</f>
+        <v>18.7331815594764</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J75" s="3" t="n">
+        <f aca="false">35006.7/1757</f>
+        <v>19.9241320432555</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="N75" s="3" t="n">
+        <f aca="false">32366.6/1757</f>
+        <v>18.4215139442231</v>
       </c>
     </row>
   </sheetData>
@@ -415,5 +3466,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/prhs.xlsx
+++ b/prhs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t xml:space="preserve">Ergebnisse:</t>
   </si>
@@ -160,13 +160,7 @@
     <t xml:space="preserve">Iterations/Sec   : 93.720712                                                    </t>
   </si>
   <si>
-    <t xml:space="preserve">5000000: ms for one run: 28,7– DPS 34865,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iterations       : 2000                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000000 ms for one run: 28,6 – DPS 35006,7</t>
   </si>
   <si>
     <t xml:space="preserve">100000: ms for one run: 30,7 – DPS 32573,3</t>
@@ -268,7 +262,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -292,6 +286,7 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -301,7 +296,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -437,7 +439,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -510,6 +512,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -589,6 +592,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -646,11 +650,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="78454712"/>
-        <c:axId val="97349286"/>
+        <c:axId val="14994827"/>
+        <c:axId val="14826181"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78454712"/>
+        <c:axId val="14994827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,14 +727,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97349286"/>
+        <c:crossAx val="14826181"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97349286"/>
+        <c:axId val="14826181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +749,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -774,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78454712"/>
+        <c:crossAx val="14994827"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -810,7 +814,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -883,6 +887,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -962,6 +967,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1019,11 +1025,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="42532105"/>
-        <c:axId val="41824424"/>
+        <c:axId val="41448081"/>
+        <c:axId val="15422284"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42532105"/>
+        <c:axId val="41448081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,14 +1102,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41824424"/>
+        <c:crossAx val="15422284"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41824424"/>
+        <c:axId val="15422284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1124,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1147,7 +1153,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42532105"/>
+        <c:crossAx val="41448081"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1183,7 +1189,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1256,6 +1262,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1325,11 +1332,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="11916863"/>
-        <c:axId val="50833405"/>
+        <c:axId val="23627595"/>
+        <c:axId val="88572203"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11916863"/>
+        <c:axId val="23627595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,14 +1409,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50833405"/>
+        <c:crossAx val="88572203"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50833405"/>
+        <c:axId val="88572203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1463,7 +1470,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1492,7 +1499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11916863"/>
+        <c:crossAx val="23627595"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1528,7 +1535,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1601,6 +1608,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1680,6 +1688,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1737,11 +1746,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26488923"/>
-        <c:axId val="14292484"/>
+        <c:axId val="54315930"/>
+        <c:axId val="40272225"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26488923"/>
+        <c:axId val="54315930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,14 +1823,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14292484"/>
+        <c:crossAx val="40272225"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14292484"/>
+        <c:axId val="40272225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1845,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1865,7 +1874,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26488923"/>
+        <c:crossAx val="54315930"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1901,7 +1910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1974,6 +1983,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2050,6 +2060,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2126,6 +2137,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2202,6 +2214,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2278,6 +2291,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2354,6 +2368,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2408,16 +2423,16 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="90790355"/>
-        <c:axId val="65743855"/>
+        <c:axId val="86561795"/>
+        <c:axId val="44629434"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90790355"/>
+        <c:axId val="86561795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2447,22 +2462,22 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65743855"/>
-        <c:crosses val="max"/>
+        <c:crossAx val="44629434"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65743855"/>
+        <c:axId val="44629434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2491,7 +2506,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90790355"/>
+        <c:crossAx val="86561795"/>
         <c:crosses val="max"/>
       </c:valAx>
       <c:spPr>
@@ -2538,9 +2553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>631800</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2549,7 +2564,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1527840" y="14417640"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5760000" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2568,9 +2583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>874080</xdr:colOff>
+      <xdr:colOff>873720</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2578,8 +2593,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8028720" y="14331240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8029080" y="14331240"/>
+        <a:ext cx="5759640" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2598,9 +2613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1532520</xdr:colOff>
+      <xdr:colOff>1532160</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2608,8 +2623,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14571360" y="17237160"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="14572080" y="17237160"/>
+        <a:ext cx="5758560" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2628,9 +2643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
+      <xdr:colOff>601560</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2638,8 +2653,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16142400" y="12802320"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="16143120" y="12802320"/>
+        <a:ext cx="5758560" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2658,9 +2673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2669,7 +2684,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="109440" y="2839320"/>
-        <a:ext cx="10273320" cy="4128840"/>
+        <a:ext cx="10273680" cy="4128480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2689,8 +2704,8 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2965,22 +2980,10 @@
       <c r="I23" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3071,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>20</v>
@@ -3082,10 +3085,10 @@
         <v>31.53</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>24</v>
@@ -3096,10 +3099,10 @@
         <v>31.33</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>27</v>
@@ -3107,10 +3110,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I34" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>30</v>
@@ -3121,7 +3124,7 @@
         <v>31</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>33</v>
@@ -3146,27 +3149,27 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="I50" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="J50" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>21690000</v>
@@ -3180,7 +3183,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>21.69</v>
@@ -3194,7 +3197,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>92.21</v>
@@ -3208,12 +3211,12 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K60" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>53.27</v>
@@ -3221,7 +3224,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>53.47</v>
@@ -3229,7 +3232,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>52.45</v>
@@ -3237,7 +3240,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>17.61</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>17.63</v>
@@ -3253,7 +3256,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>17.66</v>
@@ -3261,7 +3264,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>17.66</v>
@@ -3269,33 +3272,33 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L69" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/prhs.xlsx
+++ b/prhs.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">CoreMark Size    : 666</t>
   </si>
   <si>
-    <t xml:space="preserve">100000: ms for one run: 30,4 – DPS 32894,7</t>
+    <t xml:space="preserve">100000: ms for one run: 29 – DPS 34482,8</t>
   </si>
   <si>
     <t xml:space="preserve">4,2 MIPS</t>
@@ -88,28 +88,28 @@
     <t xml:space="preserve">INTEGER &amp; READING         1 Kb block: 53.27 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Total ticks      : 21690000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500000: ms for one run: 30,4 – DPS 32894,7</t>
+    <t xml:space="preserve">Total ticks      : 22510000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000: ms for one run:29 – DPS 34459</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGER &amp; READING         2 Kb block: 53.47 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Total time (secs): 21.690000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000000:  ms for one run: 30,3 – DPS 33057,9</t>
+    <t xml:space="preserve">Total time (secs): 22.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000000:  ms for one run: 29 – DPS 34482,8</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGER &amp; READING         4 Kb block: 52.45 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations/Sec   : 92.208391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000000: ms for one run: 30,2 – DPS 33066,6</t>
+    <t xml:space="preserve">Iterations/Sec   : 88.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000000: ms for one run: 29 – DPS 34492,3</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGER &amp; READING         8 Kb block: 17.61 MB/s                                </t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Iterations       : 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">10000000 ms for one run: 30,4 – DPS 32914,2</t>
+    <t xml:space="preserve">10000000 ms for one run: 29 – DPS 34488,7</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGER &amp; READING        16 Kb block: 17.63 MB/s                                </t>
@@ -145,19 +145,19 @@
     <t xml:space="preserve">100000: ms for one run: 28,6 – DPS 34965</t>
   </si>
   <si>
-    <t xml:space="preserve">Total ticks      : 21340000                                                     </t>
+    <t xml:space="preserve">Total ticks      : 22180000                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">500000: ms for one run: 28,9 – DPS 34602,1</t>
   </si>
   <si>
-    <t xml:space="preserve">Total time (secs): 21.340000                                                    </t>
+    <t xml:space="preserve">Total time (secs): 22,18                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">1000000:  ms for one run: 28,8 – DPS 34758,4</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations/Sec   : 93.720712                                                    </t>
+    <t xml:space="preserve">Iterations/Sec   :90,17                         </t>
   </si>
   <si>
     <t xml:space="preserve">Iterations       : 2000                                </t>
@@ -262,7 +262,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -304,6 +304,16 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -386,7 +396,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -414,20 +424,20 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -439,757 +449,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Dhrystone</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$70:$E$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ms für einen Lauf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$71:$D$75</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$71:$E$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$70:$F$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DMIPS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$71:$D$75</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$71:$F$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>18.7220830961867</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.7220830961867</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.814968696642</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.8199203187251</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.7331815594764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="14994827"/>
-        <c:axId val="14826181"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="14994827"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Anzahl der Läufe</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14826181"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="14826181"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14994827"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Dhrystone</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$70:$I$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ms für einen Lauf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$71:$H$75</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$71:$I$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$70:$J$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DMIPS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$71:$H$75</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$71:$J$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>19.9003984063745</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.6938531587934</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.7828116107001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.8435401252134</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.9241320432555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="41448081"/>
-        <c:axId val="15422284"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="41448081"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Anzahl der Läufe</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15422284"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="15422284"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41448081"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1332,11 +592,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="23627595"/>
-        <c:axId val="88572203"/>
+        <c:axId val="34286851"/>
+        <c:axId val="35013537"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23627595"/>
+        <c:axId val="34286851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,14 +669,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88572203"/>
+        <c:crossAx val="35013537"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88572203"/>
+        <c:axId val="35013537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1499,7 +759,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23627595"/>
+        <c:crossAx val="34286851"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1535,7 +795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1571,7 +831,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Dhystone</a:t>
+              <a:t>Dhrystone</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1589,7 +849,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$70</c:f>
+              <c:f>Sheet1!$E$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1608,7 +868,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1618,7 +877,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$71:$L$75</c:f>
+              <c:f>Sheet1!$D$71:$D$75</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1641,24 +900,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$71:$M$75</c:f>
+              <c:f>Sheet1!$E$71:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30.7</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,7 +928,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$70</c:f>
+              <c:f>Sheet1!$F$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1688,7 +947,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1698,7 +956,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$L$71:$L$75</c:f>
+              <c:f>Sheet1!$D$71:$D$75</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1721,24 +979,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$71:$N$75</c:f>
+              <c:f>Sheet1!$F$71:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.5391576550939</c:v>
+                  <c:v>19.625953329539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.4310756972112</c:v>
+                  <c:v>19.6124075128059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.4250996015936</c:v>
+                  <c:v>19.625953329539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.4227091633466</c:v>
+                  <c:v>19.6313602731929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.4215139442231</c:v>
+                  <c:v>19.6293113261241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,11 +1004,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="54315930"/>
-        <c:axId val="40272225"/>
+        <c:axId val="19887494"/>
+        <c:axId val="17077027"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54315930"/>
+        <c:axId val="19887494"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,14 +1081,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40272225"/>
+        <c:crossAx val="17077027"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40272225"/>
+        <c:axId val="17077027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1845,594 +1103,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="54315930"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>CoreMark</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$50:$E$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single-Core (Primäre Y-Achse)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$52:$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Total ticks      :</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total time (secs): </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Iterations/Sec   :</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$52:$E$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21690000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$50:$F$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dual-Core (Primäre Y-Achse)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$52:$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Total ticks      :</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total time (secs): </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Iterations/Sec   :</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$52:$F$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21340000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$50:$G$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quad-Core (Primäre Y-Achse)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$52:$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Total ticks      :</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total time (secs): </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Iterations/Sec   :</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$52:$G$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21410000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$50:$H$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single-Core (Sekundäre Y-Achse)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$52:$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Total ticks      :</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total time (secs): </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Iterations/Sec   :</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$52:$H$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$50:$I$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dual-Core (Sekundäre Y-Achse)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$52:$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Total ticks      :</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total time (secs): </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Iterations/Sec   :</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$52:$I$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$50:$J$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quad-Core (Sekundäre Y-Achse)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$52:$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Total ticks      :</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total time (secs): </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Iterations/Sec   :</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$52:$J$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="86561795"/>
-        <c:axId val="44629434"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="86561795"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2462,52 +1132,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44629434"/>
+        <c:crossAx val="19887494"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="44629434"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="86561795"/>
-        <c:crosses val="max"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2546,16 +1172,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>715320</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1657080</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1531800</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2563,8 +1189,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1527840" y="14417640"/>
-        <a:ext cx="5760000" cy="3239280"/>
+        <a:off x="14572080" y="17237160"/>
+        <a:ext cx="5758200" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2576,16 +1202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>560520</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>474480</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>873720</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1803960</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2593,102 +1219,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8029080" y="14331240"/>
-        <a:ext cx="5759640" cy="3239280"/>
+        <a:off x="474480" y="12686760"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1657080</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1532160</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="14572080" y="17237160"/>
-        <a:ext cx="5758560" cy="3239280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601560</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="16143120" y="12802320"/>
-        <a:ext cx="5758560" cy="3239280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>109440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215640</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="109440" y="2839320"/>
-        <a:ext cx="10273680" cy="4128480"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2704,8 +1240,8 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H87" activeCellId="0" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3172,7 +1708,7 @@
         <v>61</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>21690000</v>
+        <v>22510000</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>21340000</v>
@@ -3186,7 +1722,7 @@
         <v>62</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>21.69</v>
+        <v>22.51</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>21.34</v>
@@ -3200,7 +1736,7 @@
         <v>63</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>92.21</v>
+        <v>88.85</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>93.72</v>
@@ -3306,11 +1842,11 @@
         <v>100000</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="F71" s="3" t="n">
-        <f aca="false">32894.7/1757</f>
-        <v>18.7220830961867</v>
+        <f aca="false">34482.8/1757</f>
+        <v>19.625953329539</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>100000</v>
@@ -3338,11 +1874,11 @@
         <v>500000</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="F72" s="3" t="n">
-        <f aca="false">32894.7/1757</f>
-        <v>18.7220830961867</v>
+        <f aca="false">34459/1757</f>
+        <v>19.6124075128059</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>500000</v>
@@ -3370,11 +1906,11 @@
         <v>1000000</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="F73" s="3" t="n">
-        <f aca="false">33057.9/1757</f>
-        <v>18.814968696642</v>
+        <f aca="false">34482.8/1757</f>
+        <v>19.625953329539</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>1000000</v>
@@ -3402,11 +1938,11 @@
         <v>5000000</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F74" s="3" t="n">
-        <f aca="false">33066.6/1757</f>
-        <v>18.8199203187251</v>
+        <f aca="false">34492.3/1757</f>
+        <v>19.6313602731929</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>5000000</v>
@@ -3434,11 +1970,11 @@
         <v>10000000</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="F75" s="3" t="n">
-        <f aca="false">32914.2/1757</f>
-        <v>18.7331815594764</v>
+        <f aca="false">34488.7/1757</f>
+        <v>19.6293113261241</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>10000000</v>
